--- a/QSPI烧录测试记录.xlsx
+++ b/QSPI烧录测试记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>程序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,19 @@
   </si>
   <si>
     <t>数据校验时失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入emxgui资源文件，带目录，地址没有对齐到4096
+使用fast read函数进行读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -674,6 +687,46 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>120</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/QSPI烧录测试记录.xlsx
+++ b/QSPI烧录测试记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>程序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,16 +130,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>写入emxgui资源文件，带目录，地址没有对齐到4096
 使用fast read函数进行读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正常</t>
+    <t>120\130\133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120MHz正常
+130MHz正常
+133MHz失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +508,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -695,13 +697,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>120</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -710,25 +712,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/QSPI烧录测试记录.xlsx
+++ b/QSPI烧录测试记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>程序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,9 +139,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BSP_QSPI_Write，BSP_QSPI_FastRead/Read函数设置读写0数据的判断，为0时跳出，其它程序条件同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到了错误的原因，BSP_QSPI_Write，BSP_QSPI_FastRead/Read函数需要增加读写数据大小为0时的判断，s_command.NbData  = 0时，表示读写整片FLASH大小的内容，导致出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>120MHz正常
-130MHz正常
+130MHz有时正常，有时失败
 133MHz失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题已解决，测试如下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,13 +185,26 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,22 +216,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -505,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -700,7 +730,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -713,9 +743,30 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/QSPI烧录测试记录.xlsx
+++ b/QSPI烧录测试记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>程序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,14 @@
   </si>
   <si>
     <t>问题已解决，测试如下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-emXGUI推荐应用模版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSPI使用120M时钟，要使用模式0，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -767,6 +775,14 @@
         <v>29</v>
       </c>
       <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
